--- a/Analysis/analysis_sharpe16-21.xlsx
+++ b/Analysis/analysis_sharpe16-21.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MMF\2025 RM\Project\report data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CC823D-8E74-4E48-B791-363B1711ADE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2CD7E9-9E51-4C80-9F86-917D62BD5C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{1BFFA219-74BE-4808-AB92-38180A061670}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{1BFFA219-74BE-4808-AB92-38180A061670}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
     <sheet name="Return" sheetId="2" r:id="rId2"/>
-    <sheet name="Sharpe" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,9 +73,6 @@
     <t>Sharpe Ratio</t>
   </si>
   <si>
-    <t>std</t>
-  </si>
-  <si>
     <t>AW_r</t>
   </si>
   <si>
@@ -273,6 +269,9 @@
   </si>
   <si>
     <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>standard deviation</t>
   </si>
 </sst>
 </file>
@@ -378,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -414,13 +413,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4466,7 +4462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3017D035-AC11-4EDA-99F1-972C3B14AD7D}">
   <dimension ref="A1:AV64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
@@ -4509,7 +4505,7 @@
         <v>9</v>
       </c>
       <c r="AV1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
@@ -4536,7 +4532,7 @@
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>50530.643926005192</v>
@@ -4558,7 +4554,7 @@
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>51497.193910794478</v>
@@ -4580,7 +4576,7 @@
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>52297.453381665116</v>
@@ -4602,7 +4598,7 @@
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>52022.513864235523</v>
@@ -4624,7 +4620,7 @@
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>52159.887851957843</v>
@@ -4646,7 +4642,7 @@
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>56499.400852432147</v>
@@ -4668,7 +4664,7 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>56039.960549128882</v>
@@ -4690,7 +4686,7 @@
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>56305.325270616129</v>
@@ -4712,7 +4708,7 @@
     </row>
     <row r="11" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>56304.872521411409</v>
@@ -4734,7 +4730,7 @@
     </row>
     <row r="12" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>57222.607355115928</v>
@@ -4756,7 +4752,7 @@
     </row>
     <row r="13" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>57565.809101207728</v>
@@ -4778,7 +4774,7 @@
     </row>
     <row r="14" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>63309.199675213436</v>
@@ -4800,7 +4796,7 @@
     </row>
     <row r="15" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>63699.932283755123</v>
@@ -4822,7 +4818,7 @@
     </row>
     <row r="16" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>62586.0330049845</v>
@@ -4844,7 +4840,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>61987.622874885747</v>
@@ -4866,7 +4862,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>62708.141737826001</v>
@@ -4888,7 +4884,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>62633.491307027267</v>
@@ -4910,7 +4906,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <v>68936.110951136623</v>
@@ -4932,7 +4928,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>69838.021024418398</v>
@@ -4954,7 +4950,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>69962.760062418762</v>
@@ -4976,7 +4972,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <v>70132.283075105093</v>
@@ -4998,7 +4994,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>69462.090990326193</v>
@@ -5020,7 +5016,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>70042.34336468589</v>
@@ -5042,7 +5038,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <v>74935.719522841799</v>
@@ -5064,7 +5060,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <v>76306.514593322761</v>
@@ -5086,7 +5082,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <v>76653.709281315561</v>
@@ -5108,7 +5104,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>77122.413665960819</v>
@@ -5130,7 +5126,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>77930.950207665621</v>
@@ -5152,7 +5148,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <v>77422.430393286952</v>
@@ -5174,7 +5170,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <v>80429.881722689126</v>
@@ -5196,7 +5192,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <v>81199.680682709499</v>
@@ -5218,7 +5214,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>79514.125345079679</v>
@@ -5240,7 +5236,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <v>83029.254314889957</v>
@@ -5262,7 +5258,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>84259.326453947288</v>
@@ -5284,7 +5280,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <v>86797.233328953778</v>
@@ -5306,7 +5302,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <v>91751.524850134228</v>
@@ -5328,7 +5324,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <v>91943.156930164958</v>
@@ -5350,7 +5346,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <v>93097.381904104957</v>
@@ -5372,7 +5368,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <v>93956.655792415346</v>
@@ -5394,7 +5390,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <v>95580.683786144204</v>
@@ -5416,7 +5412,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <v>96111.421102611421</v>
@@ -5438,7 +5434,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>100988.76781918629</v>
@@ -5460,7 +5456,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>102302.73702831649</v>
@@ -5482,7 +5478,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>100435.8564646922</v>
@@ -5504,7 +5500,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <v>103982.51743112379</v>
@@ -5526,7 +5522,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <v>101947.5772910005</v>
@@ -5548,7 +5544,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>90115.293814056058</v>
@@ -5570,7 +5566,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <v>100112.49624826681</v>
@@ -5592,7 +5588,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>100748.10073012349</v>
@@ -5614,7 +5610,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <v>102589.2784231143</v>
@@ -5636,7 +5632,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <v>105319.906369348</v>
@@ -5658,7 +5654,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <v>104610.72850639081</v>
@@ -5680,7 +5676,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>104473.6373951624</v>
@@ -5702,7 +5698,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <v>108098.5013910313</v>
@@ -5724,7 +5720,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <v>113500.7726791655</v>
@@ -5746,7 +5742,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <v>113296.1784462151</v>
@@ -5768,7 +5764,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <v>112389.56812478681</v>
@@ -5790,7 +5786,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <v>110978.8259223124</v>
@@ -5812,7 +5808,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <v>111922.6832543489</v>
@@ -5834,7 +5830,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <v>117722.7773576988</v>
@@ -5856,7 +5852,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <v>119934.182771452</v>
@@ -5878,7 +5874,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <v>121751.8287371264</v>
@@ -5906,18 +5902,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC18D003-3A5F-4B61-93AE-01EDE6026BA8}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62:E64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5928,13 +5926,17 @@
         <v>10</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5945,10 +5947,13 @@
       <c r="C2">
         <v>1.6083333641290671E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <f>Performance!H3</f>
@@ -5965,10 +5970,17 @@
         <f>D3-$C$3</f>
         <v>2.6248101624720594E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="13">
+        <f>AVERAGE(Return!E:E)</f>
+        <v>1.5098352468400422E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <f>Performance!H4</f>
@@ -5985,10 +5997,17 @@
         <f>D4-$C$3</f>
         <v>1.2965160283952797E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="13">
+        <f>_xlfn.STDEV.S(Return!D:D)</f>
+        <v>3.1112449224480112E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <f>Performance!H5</f>
@@ -6005,10 +6024,17 @@
         <f>D5-$C$3</f>
         <v>2.3447658933034039E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="G5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="13">
+        <f>(H3/H4)*SQRT(12)</f>
+        <v>1.6810707120592807</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <f>Performance!H6</f>
@@ -6026,9 +6052,9 @@
         <v>-5.272261537732509E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <f>Performance!H7</f>
@@ -6046,9 +6072,9 @@
         <v>4.1155987468802944E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <f>Performance!H8</f>
@@ -6066,9 +6092,9 @@
         <v>9.0047753271207967E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <f>Performance!H9</f>
@@ -6086,9 +6112,9 @@
         <v>-1.0856591021364477E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <f>Performance!H10</f>
@@ -6106,9 +6132,9 @@
         <v>6.3369782502237402E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <f>Performance!H11</f>
@@ -6126,9 +6152,9 @@
         <v>-5.6169814829297561E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <f>Performance!H12</f>
@@ -6146,9 +6172,9 @@
         <v>1.9131000071442101E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <f>Performance!H13</f>
@@ -6166,9 +6192,9 @@
         <v>7.1152475819048653E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <f>Performance!H14</f>
@@ -6186,9 +6212,9 @@
         <v>0.10668866877862228</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <f>Performance!H15</f>
@@ -6206,9 +6232,9 @@
         <v>3.3141613962985278E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <f>Performance!H16</f>
@@ -6228,7 +6254,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <f>Performance!H17</f>
@@ -6248,7 +6274,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <f>Performance!H18</f>
@@ -6268,7 +6294,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <f>Performance!H19</f>
@@ -6288,7 +6314,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20">
         <f>Performance!H20</f>
@@ -6308,7 +6334,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <f>Performance!H21</f>
@@ -6328,7 +6354,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <f>Performance!H22</f>
@@ -6348,7 +6374,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23">
         <f>Performance!H23</f>
@@ -6368,7 +6394,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <f>Performance!H24</f>
@@ -6388,7 +6414,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <f>Performance!H25</f>
@@ -6408,7 +6434,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26">
         <f>Performance!H26</f>
@@ -6428,7 +6454,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27">
         <f>Performance!H27</f>
@@ -6448,7 +6474,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28">
         <f>Performance!H28</f>
@@ -6468,7 +6494,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <f>Performance!H29</f>
@@ -6488,7 +6514,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <f>Performance!H30</f>
@@ -6508,7 +6534,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31">
         <f>Performance!H31</f>
@@ -6528,7 +6554,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32">
         <f>Performance!H32</f>
@@ -6548,7 +6574,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33">
         <f>Performance!H33</f>
@@ -6568,7 +6594,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <f>Performance!H34</f>
@@ -6588,7 +6614,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35">
         <f>Performance!H35</f>
@@ -6608,7 +6634,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <f>Performance!H36</f>
@@ -6628,7 +6654,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37">
         <f>Performance!H37</f>
@@ -6648,7 +6674,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38">
         <f>Performance!H38</f>
@@ -6668,7 +6694,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39">
         <f>Performance!H39</f>
@@ -6688,7 +6714,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40">
         <f>Performance!H40</f>
@@ -6708,7 +6734,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41">
         <f>Performance!H41</f>
@@ -6728,7 +6754,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42">
         <f>Performance!H42</f>
@@ -6748,7 +6774,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43">
         <f>Performance!H43</f>
@@ -6768,7 +6794,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <f>Performance!H44</f>
@@ -6788,7 +6814,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <f>Performance!H45</f>
@@ -6808,7 +6834,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <f>Performance!H46</f>
@@ -6828,7 +6854,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47">
         <f>Performance!H47</f>
@@ -6848,7 +6874,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48">
         <f>Performance!H48</f>
@@ -6868,7 +6894,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <f>Performance!H49</f>
@@ -6888,7 +6914,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50">
         <f>Performance!H50</f>
@@ -6908,7 +6934,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <f>Performance!H51</f>
@@ -6928,7 +6954,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52">
         <f>Performance!H52</f>
@@ -6948,7 +6974,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53">
         <f>Performance!H53</f>
@@ -6968,7 +6994,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54">
         <f>Performance!H54</f>
@@ -6988,7 +7014,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <f>Performance!H55</f>
@@ -7008,7 +7034,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56">
         <f>Performance!H56</f>
@@ -7028,7 +7054,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57">
         <f>Performance!H57</f>
@@ -7048,7 +7074,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <f>Performance!H58</f>
@@ -7068,7 +7094,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B59">
         <f>Performance!H59</f>
@@ -7088,7 +7114,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B60">
         <f>Performance!H60</f>
@@ -7108,7 +7134,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B61">
         <f>Performance!H61</f>
@@ -7128,7 +7154,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B62">
         <f>Performance!H62</f>
@@ -7148,7 +7174,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B63">
         <f>Performance!H63</f>
@@ -7168,7 +7194,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B64">
         <f>Performance!H64</f>
@@ -7185,81 +7211,6 @@
         <f t="shared" si="1"/>
         <v>2.4837145167705094E-2</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4D3135-5523-4B90-AA03-88CC1E9D913F}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.7265625" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="14">
-        <f>AVERAGE(Return!E:E)</f>
-        <v>1.5098352468400422E-2</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="14">
-        <f>_xlfn.STDEV.S(Return!D:D)</f>
-        <v>3.1112449224480112E-2</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="14">
-        <f>(B3/B4)*SQRT(12)</f>
-        <v>1.6810707120592807</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analysis/analysis_sharpe16-21.xlsx
+++ b/Analysis/analysis_sharpe16-21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saint\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448B6E43-F2DF-4476-8C54-71030D60FAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF068B23-1C79-4BF9-9276-E657A1F61F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="3" xr2:uid="{1BFFA219-74BE-4808-AB92-38180A061670}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{1BFFA219-74BE-4808-AB92-38180A061670}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="107">
   <si>
     <t>formatted_date</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>AW (What-if)</t>
   </si>
 </sst>
 </file>
@@ -895,7 +898,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -938,8 +941,9 @@
     <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1001,8 +1005,11 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1042,6 +1049,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1074,6 +1082,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CAD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1723,6 +1756,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>USD</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2372,6 +2430,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TOTAL</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4059,7 +4142,7 @@
                   <c:v>AW</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AW2</c:v>
+                  <c:v>AW (What-if)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Benchmark</c:v>
@@ -4071,7 +4154,7 @@
             <c:numRef>
               <c:f>Analysis!$K$3:$M$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5.9554196611768091E-2</c:v>
@@ -4124,7 +4207,7 @@
                   <c:v>AW</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AW2</c:v>
+                  <c:v>AW (What-if)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Benchmark</c:v>
@@ -4136,7 +4219,7 @@
             <c:numRef>
               <c:f>Analysis!$K$6:$M$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>6.0205699412646495E-2</c:v>
@@ -4184,7 +4267,7 @@
             <c:numRef>
               <c:f>Analysis!$K$4:$M$4</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5.9082307649517718E-2</c:v>
@@ -4287,7 +4370,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4490,7 +4573,7 @@
                   <c:v>AW</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>AW2</c:v>
+                  <c:v>AW (What-if)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Benchmark</c:v>
@@ -4582,7 +4665,7 @@
                         <c:v>AW</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>AW2</c:v>
+                        <c:v>AW (What-if)</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>Benchmark</c:v>
@@ -4600,7 +4683,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.00%</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>5.9554196611768091E-2</c:v>
@@ -4667,7 +4750,7 @@
                         <c:v>AW</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>AW2</c:v>
+                        <c:v>AW (What-if)</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>Benchmark</c:v>
@@ -4685,7 +4768,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.00%</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>4.9080164343824943E-2</c:v>
@@ -4752,7 +4835,7 @@
                         <c:v>AW</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>AW2</c:v>
+                        <c:v>AW (What-if)</c:v>
                       </c:pt>
                       <c:pt idx="2">
                         <c:v>Benchmark</c:v>
@@ -4770,7 +4853,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>General</c:formatCode>
+                      <c:formatCode>0.00%</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
                         <c:v>6.0205699412646495E-2</c:v>
@@ -4986,6 +5069,1093 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>since Inception</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TWRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Analysis!$K$2:$M$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Analysis!$K$2,Analysis!$M$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>AW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Benchmark</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Analysis!$K$3:$M$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Analysis!$K$3,Analysis!$M$3)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.9554196611768091E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.718709677419354E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2D9-4C99-B70A-48B0E4D871B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$J$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Analysis!$K$2:$M$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Analysis!$K$2,Analysis!$M$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>AW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Benchmark</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Analysis!$K$6:$M$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Analysis!$K$6,Analysis!$M$6)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.0205699412646495E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0108887902903196E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2D9-4C99-B70A-48B0E4D871B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MWRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>AW</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>Benchmark</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Analysis!$K$4:$M$4</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Analysis!$K$4,Analysis!$M$4)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.9082307649517718E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D2D9-4C99-B70A-48B0E4D871B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="521015416"/>
+        <c:axId val="521015744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="521015416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521015744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521015744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8.0000000000000016E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521015416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1.0000000000000002E-2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Analysis!$J$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sharpe Ratio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Analysis!$K$2:$M$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Analysis!$K$2,Analysis!$M$2)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>AW</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Benchmark</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Analysis!$K$7:$M$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Analysis!$K$7,Analysis!$M$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.81520794248119677</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61077597318976851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6328-4EA8-AB48-9502387EC818}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="281152176"/>
+        <c:axId val="521004264"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Analysis!$J$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>TWRR</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Analysis!$K$2:$M$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Analysis!$K$2,Analysis!$M$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>AW</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Benchmark</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Analysis!$K$3:$M$3</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Analysis!$K$3,Analysis!$M$3)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>5.9554196611768091E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.718709677419354E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-6328-4EA8-AB48-9502387EC818}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Analysis!$J$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>excess mean</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Analysis!$K$2:$M$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Analysis!$K$2,Analysis!$M$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>AW</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Benchmark</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Analysis!$K$5:$M$5</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Analysis!$K$5,Analysis!$M$5)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>4.9080164343824943E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.6713064506250406E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-6328-4EA8-AB48-9502387EC818}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Analysis!$J$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>STD</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Analysis!$K$2:$M$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Analysis!$K$2,Analysis!$M$2)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>AW</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Benchmark</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Analysis!$K$6:$M$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(Analysis!$K$6,Analysis!$M$6)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.00%</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>6.0205699412646495E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.0108887902903196E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-6328-4EA8-AB48-9502387EC818}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="281152176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="521004264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="521004264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="281152176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5726,6 +6896,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -8797,6 +10047,1012 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9490,16 +11746,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>299085</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>100965</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9524,6 +11780,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B87982-0BBD-41C3-B580-6E7B0C2FEF75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1202BBC-6E30-4FCF-9445-CE12BE90D35D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9531,16 +11863,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>207645</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>51435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>337184</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>127635</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>150494</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9869,8 +12201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3017D035-AC11-4EDA-99F1-972C3B14AD7D}">
   <dimension ref="A1:AW66"/>
   <sheetViews>
-    <sheetView topLeftCell="T19" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12334,8 +14666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC18D003-3A5F-4B61-93AE-01EDE6026BA8}">
   <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C64"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12400,7 +14732,7 @@
         <v>8</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="M2" s="20" t="s">
         <v>84</v>
@@ -12484,15 +14816,15 @@
       <c r="J3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="25">
         <f>AVERAGE(C3:C64)*12</f>
         <v>5.9554196611768091E-2</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="25">
         <f>AVERAGE(D3:D64)*12</f>
         <v>6.1706656154716058E-2</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="25">
         <f>AVERAGE(G3:G64)*12</f>
         <v>4.718709677419354E-2</v>
       </c>
@@ -12564,14 +14896,15 @@
       <c r="J4" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="25">
         <f>R7</f>
         <v>5.9082307649517718E-2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="25">
         <f>R15</f>
         <v>6.1399824304668504E-2</v>
       </c>
+      <c r="M4" s="25"/>
       <c r="P4" s="21" t="s">
         <v>92</v>
       </c>
@@ -12651,15 +14984,15 @@
       <c r="J5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="25">
         <f>AVERAGE(Analysis!E:E)*12</f>
         <v>4.9080164343824943E-2</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="25">
         <f>AVERAGE(Analysis!F:F)*12</f>
         <v>5.1232623886772924E-2</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="25">
         <f>AVERAGE(H:H)*12</f>
         <v>3.6713064506250406E-2</v>
       </c>
@@ -12712,15 +15045,15 @@
       <c r="J6" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="25">
         <f>_xlfn.STDEV.S(Analysis!C:C)*SQRT(12)</f>
         <v>6.0205699412646495E-2</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="25">
         <f>_xlfn.STDEV.S(Analysis!D:D)*SQRT(12)</f>
         <v>5.9377160060629895E-2</v>
       </c>
-      <c r="M6" s="12">
+      <c r="M6" s="25">
         <f>_xlfn.STDEV.S(Analysis!E:E)*SQRT(12)</f>
         <v>6.0108887902903196E-2</v>
       </c>
@@ -14683,7 +17016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDF59B5-C6E0-4BBD-A2FF-418623668A0B}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -15639,7 +17972,7 @@
         <v>83347.828182357713</v>
       </c>
       <c r="D34" s="21">
-        <f t="shared" ref="D34:D65" si="2">B34+C34</f>
+        <f t="shared" ref="D34:D64" si="2">B34+C34</f>
         <v>162861.95352743741</v>
       </c>
       <c r="F34" s="21">
@@ -15670,7 +18003,7 @@
         <v>3.1492857078027819E-2</v>
       </c>
       <c r="G35" s="21">
-        <f t="shared" ref="G35:G66" si="3">G34*(1+F35)</f>
+        <f t="shared" ref="G35:G64" si="3">G34*(1+F35)</f>
         <v>1.1528587387700471</v>
       </c>
     </row>
